--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-12-14 15:55:05</t>
+    <t>2018-12-17 17:53:11</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>480秒</t>
+    <t>342秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -186,7 +186,6 @@
 返回
 返回
 返回
-返回
 点击-我的
 点击-团购订单-待付款
 点击-待付款-订单列表单元-第一商品
@@ -238,8 +237,41 @@
 </t>
   </si>
   <si>
-    <t>用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.r.ruyigou:id/cancle, 
-==检查点_团购-测试完成失败，请检查_com.r.ruyigou:id/lay==</t>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>扫码购</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击-立即体验
+点击-扫码购-入口
+输入-账号
+输入-密码
+点击-登陆
+点击-扫码购-入口
+点击-门店切换-按钮
+点击-门店切换-列表
+点击-扫一扫-入口
+点击-手动输入-入口
+输入-商品条码
+点击-确认-按钮
+点击-取消-按钮
+点击-确认-按钮
+点击-商品增加-按钮
+点击-商品增加-按钮
+点击-商品减少-按钮
+点击-加入购物车-按钮
+点击-手动输入-入口
+点击-购物车-入口
+点击-去结算-入口
+点击-提交订单-按钮
+返回
+点击-订单列表-入口
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">扫码购-测试完成
+</t>
   </si>
 </sst>
 </file>
@@ -397,10 +429,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,49 +495,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1030605</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="团购CheckPoint_1_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="571500"/>
-          <a:ext cx="1030605" cy="1830705"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -838,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -855,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -872,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -908,10 +897,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
         <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
+    <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1012,13 +1001,37 @@
         <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
@@ -1031,6 +1044,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>